--- a/Pre-processing/Abnormalities_Features-V5.xlsx
+++ b/Pre-processing/Abnormalities_Features-V5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golzardm\Documents\paper-TDA-embankment-monitoring\Pre-processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE554685-7E40-41D4-A6A3-4F5AB300AD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0B5AB6-FD51-4820-99A1-0ABF9D1F2ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2A9B525-589D-4D02-9202-6C3488D882EF}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -243,6 +244,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,9 +254,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -592,7 +593,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,24 +618,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -693,52 +694,52 @@
       <c r="A3" s="8">
         <v>-5</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>11.333878189376501</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>11.130885039753201</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>2594</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>2408</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0.141598016023635</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>6.1361312866210903E-2</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <v>5.0790870125898202</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="10">
         <v>1.29796756591169</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <v>4.3502875688577698E-2</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <v>1.4408789271759301E-2</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="10">
         <v>3596.6940389186502</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="10">
         <v>3620.21142362202</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="10">
         <v>1129.7096899774299</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <v>448.41127790961599</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="10">
         <v>5849.7762007218998</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="10">
         <v>1071.62298522796</v>
       </c>
     </row>
@@ -1064,52 +1065,52 @@
       <c r="A10" s="8">
         <v>-0.4</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>6.3829396996720096</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>5.9064486213592904</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>84</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>62</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>0.13009612262248901</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>4.2977407574653598E-2</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>0.91707415015694205</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="10">
         <v>0.21099500777105001</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>3.8311463583561398E-2</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <v>7.2743222500926798E-3</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="10">
         <v>106.28416226121099</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>66.545639553080093</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="10">
         <v>36.495499382863002</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <v>12.7411690798224</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="10">
         <v>177.581268306217</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="10">
         <v>13.3852629621429</v>
       </c>
     </row>
@@ -1223,52 +1224,52 @@
       <c r="A13" s="8">
         <v>0.6</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>7.0891079112372397</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>6.6438112162436003</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>137</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>107</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <v>0.13124404847621901</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <v>5.0790384411811801E-2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="10">
         <v>1.1817042779131199</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <v>0.27283188873074699</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="10">
         <v>3.8819652335829298E-2</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <v>1.06023615429347E-2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="10">
         <v>176.010022167486</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="10">
         <v>140.89812622319499</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="10">
         <v>59.685718957189899</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <v>20.6041669836887</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="10">
         <v>291.997265143167</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="10">
         <v>37.072525482260801</v>
       </c>
     </row>
@@ -1276,52 +1277,52 @@
       <c r="A14" s="8">
         <v>0.8</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>7.3478139321773304</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>6.8869332327592696</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>164</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>130</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <v>0.134629115462303</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>5.3836137056350701E-2</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>1.31673838971335</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="10">
         <v>0.30124680433193002</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="10">
         <v>4.0331158980324702E-2</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <v>1.11378541733726E-2</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="10">
         <v>217.797589898815</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="10">
         <v>182.75227269362</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="10">
         <v>71.987997208146794</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <v>24.016414627754401</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="10">
         <v>356.48670704178602</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="10">
         <v>44.1425711191998</v>
       </c>
     </row>
@@ -1329,52 +1330,52 @@
       <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>7.9907043188111002</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>7.5685790488684299</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>256</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>210</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <v>0.133416637778282</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <v>5.55702447891235E-2</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="10">
         <v>1.63250574001507</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="10">
         <v>0.38273274674819402</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="10">
         <v>3.9787550373516799E-2</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <v>1.0750579345120401E-2</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="10">
         <v>336.06274354545201</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="10">
         <v>281.09374358548803</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="10">
         <v>112.033550971095</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <v>37.979489118081602</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <v>552.86528162184902</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="10">
         <v>65.418552854526595</v>
       </c>
     </row>
@@ -1382,52 +1383,52 @@
       <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>9.6405561458575306</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>9.3266948316122793</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>803</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>708</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <v>0.13865424692630701</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <v>5.6421637535095201E-2</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="10">
         <v>2.8819134208678499</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="10">
         <v>0.69780005874831397</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <v>4.2153338725048797E-2</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <v>1.2775993360865601E-2</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="10">
         <v>1097.91160738336</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="10">
         <v>1032.9438870105</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="10">
         <v>351.35271499972998</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <v>127.58288070729699</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="10">
         <v>1785.08268863584</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="10">
         <v>272.27104949876298</v>
       </c>
     </row>
@@ -1435,52 +1436,52 @@
       <c r="A17" s="8">
         <v>3</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>10.0019032421524</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>9.7283205113828206</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>1031</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>928</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>0.143265485763549</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <v>5.3295671939849798E-2</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <v>3.2440329758022401</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="10">
         <v>0.79131784359834101</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="10">
         <v>4.4273573668476299E-2</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <v>1.18759104582202E-2</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="10">
         <v>1449.5895167516901</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="10">
         <v>1352.5696662698299</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="10">
         <v>450.91291347713701</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <v>168.308775832652</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="10">
         <v>2342.4745702338901</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="10">
         <v>375.007226386951</v>
       </c>
     </row>
@@ -1488,52 +1489,52 @@
       <c r="A18" s="8">
         <v>4</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>10.417335296218299</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <v>10.169136777519901</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>1374</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <v>1251</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <v>0.154029220342636</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <v>5.90707212686538E-2</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="10">
         <v>3.6815383900949898</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="10">
         <v>0.92200986078059599</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="10">
         <v>4.9355651546018099E-2</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="10">
         <v>1.29177294301568E-2</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="10">
         <v>2005.14222152913</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="10">
         <v>1824.7424189221499</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="10">
         <v>597.88376767758302</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <v>227.97323212861099</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="10">
         <v>3219.0491721041499</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="10">
         <v>490.49615037696702</v>
       </c>
     </row>
@@ -1541,52 +1542,52 @@
       <c r="A19" s="8">
         <v>5</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>11.0684347569655</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>10.8534542323645</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>2157</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <v>1993</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <v>0.15000000596046401</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="10">
         <v>5.8849602937698302E-2</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="10">
         <v>4.5849127460352399</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="10">
         <v>1.16664426381513</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="10">
         <v>4.7431747804420603E-2</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="10">
         <v>1.4585149137665201E-2</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="10">
         <v>3096.61728204268</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="10">
         <v>2891.16406652865</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="10">
         <v>936.36680441799797</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <v>365.671425552492</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="10">
         <v>4995.2203650479996</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="10">
         <v>924.90206731152296</v>
       </c>
     </row>
